--- a/Test files/checkers.xlsx
+++ b/Test files/checkers.xlsx
@@ -397,80 +397,80 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -527,80 +527,80 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
